--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Sema6d-Plxna1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.06792854062582</v>
+        <v>33.06592966666667</v>
       </c>
       <c r="H2">
-        <v>6.06792854062582</v>
+        <v>99.197789</v>
       </c>
       <c r="I2">
-        <v>0.1383703545479206</v>
+        <v>0.4620579289161133</v>
       </c>
       <c r="J2">
-        <v>0.1383703545479206</v>
+        <v>0.4620579289161132</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.91545882883449</v>
+        <v>7.023694333333334</v>
       </c>
       <c r="N2">
-        <v>6.91545882883449</v>
+        <v>21.071083</v>
       </c>
       <c r="O2">
-        <v>0.1714627684443001</v>
+        <v>0.1590811435055747</v>
       </c>
       <c r="P2">
-        <v>0.1714627684443001</v>
+        <v>0.1590811435055747</v>
       </c>
       <c r="Q2">
-        <v>41.96250999900761</v>
+        <v>232.2449828261653</v>
       </c>
       <c r="R2">
-        <v>41.96250999900761</v>
+        <v>2090.204845435487</v>
       </c>
       <c r="S2">
-        <v>0.02372536406140581</v>
+        <v>0.07350470369779287</v>
       </c>
       <c r="T2">
-        <v>0.02372536406140581</v>
+        <v>0.07350470369779283</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.06792854062582</v>
+        <v>33.06592966666667</v>
       </c>
       <c r="H3">
-        <v>6.06792854062582</v>
+        <v>99.197789</v>
       </c>
       <c r="I3">
-        <v>0.1383703545479206</v>
+        <v>0.4620579289161133</v>
       </c>
       <c r="J3">
-        <v>0.1383703545479206</v>
+        <v>0.4620579289161132</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.911045388253</v>
+        <v>13.91445766666667</v>
       </c>
       <c r="N3">
-        <v>13.911045388253</v>
+        <v>41.74337300000001</v>
       </c>
       <c r="O3">
-        <v>0.3449122340630247</v>
+        <v>0.3151515045818828</v>
       </c>
       <c r="P3">
-        <v>0.3449122340630247</v>
+        <v>0.3151515045818827</v>
       </c>
       <c r="Q3">
-        <v>84.41122934132156</v>
+        <v>460.0944785558109</v>
       </c>
       <c r="R3">
-        <v>84.41122934132156</v>
+        <v>4140.850307002298</v>
       </c>
       <c r="S3">
-        <v>0.0477256281152161</v>
+        <v>0.1456182515019018</v>
       </c>
       <c r="T3">
-        <v>0.0477256281152161</v>
+        <v>0.1456182515019017</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.06792854062582</v>
+        <v>33.06592966666667</v>
       </c>
       <c r="H4">
-        <v>6.06792854062582</v>
+        <v>99.197789</v>
       </c>
       <c r="I4">
-        <v>0.1383703545479206</v>
+        <v>0.4620579289161133</v>
       </c>
       <c r="J4">
-        <v>0.1383703545479206</v>
+        <v>0.4620579289161132</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.5056267264356</v>
+        <v>23.213494</v>
       </c>
       <c r="N4">
-        <v>19.5056267264356</v>
+        <v>69.64048200000001</v>
       </c>
       <c r="O4">
-        <v>0.4836249974926752</v>
+        <v>0.5257673519125425</v>
       </c>
       <c r="P4">
-        <v>0.4836249974926752</v>
+        <v>0.5257673519125424</v>
       </c>
       <c r="Q4">
-        <v>118.3587491161324</v>
+        <v>767.5757599215888</v>
       </c>
       <c r="R4">
-        <v>118.3587491161324</v>
+        <v>6908.181839294299</v>
       </c>
       <c r="S4">
-        <v>0.06691936237129867</v>
+        <v>0.2429349737164187</v>
       </c>
       <c r="T4">
-        <v>0.06691936237129867</v>
+        <v>0.2429349737164186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.6699941118976</v>
+        <v>14.69090766666667</v>
       </c>
       <c r="H5">
-        <v>14.6699941118976</v>
+        <v>44.072723</v>
       </c>
       <c r="I5">
-        <v>0.3345280474034429</v>
+        <v>0.2052883568914378</v>
       </c>
       <c r="J5">
-        <v>0.3345280474034429</v>
+        <v>0.2052883568914378</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.91545882883449</v>
+        <v>7.023694333333334</v>
       </c>
       <c r="N5">
-        <v>6.91545882883449</v>
+        <v>21.071083</v>
       </c>
       <c r="O5">
-        <v>0.1714627684443001</v>
+        <v>0.1590811435055747</v>
       </c>
       <c r="P5">
-        <v>0.1714627684443001</v>
+        <v>0.1590811435055747</v>
       </c>
       <c r="Q5">
-        <v>101.4497403000722</v>
+        <v>103.1844449298899</v>
       </c>
       <c r="R5">
-        <v>101.4497403000722</v>
+        <v>928.660004369009</v>
       </c>
       <c r="S5">
-        <v>0.05735910513006037</v>
+        <v>0.03265750656267046</v>
       </c>
       <c r="T5">
-        <v>0.05735910513006037</v>
+        <v>0.03265750656267045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.6699941118976</v>
+        <v>14.69090766666667</v>
       </c>
       <c r="H6">
-        <v>14.6699941118976</v>
+        <v>44.072723</v>
       </c>
       <c r="I6">
-        <v>0.3345280474034429</v>
+        <v>0.2052883568914378</v>
       </c>
       <c r="J6">
-        <v>0.3345280474034429</v>
+        <v>0.2052883568914378</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.911045388253</v>
+        <v>13.91445766666667</v>
       </c>
       <c r="N6">
-        <v>13.911045388253</v>
+        <v>41.74337300000001</v>
       </c>
       <c r="O6">
-        <v>0.3449122340630247</v>
+        <v>0.3151515045818828</v>
       </c>
       <c r="P6">
-        <v>0.3449122340630247</v>
+        <v>0.3151515045818827</v>
       </c>
       <c r="Q6">
-        <v>204.0749539360118</v>
+        <v>204.4160128127421</v>
       </c>
       <c r="R6">
-        <v>204.0749539360118</v>
+        <v>1839.744115314679</v>
       </c>
       <c r="S6">
-        <v>0.1153828161866629</v>
+        <v>0.06469693454747917</v>
       </c>
       <c r="T6">
-        <v>0.1153828161866629</v>
+        <v>0.06469693454747916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.6699941118976</v>
+        <v>14.69090766666667</v>
       </c>
       <c r="H7">
-        <v>14.6699941118976</v>
+        <v>44.072723</v>
       </c>
       <c r="I7">
-        <v>0.3345280474034429</v>
+        <v>0.2052883568914378</v>
       </c>
       <c r="J7">
-        <v>0.3345280474034429</v>
+        <v>0.2052883568914378</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.5056267264356</v>
+        <v>23.213494</v>
       </c>
       <c r="N7">
-        <v>19.5056267264356</v>
+        <v>69.64048200000001</v>
       </c>
       <c r="O7">
-        <v>0.4836249974926752</v>
+        <v>0.5257673519125425</v>
       </c>
       <c r="P7">
-        <v>0.4836249974926752</v>
+        <v>0.5257673519125424</v>
       </c>
       <c r="Q7">
-        <v>286.1474292256827</v>
+        <v>341.0272969747207</v>
       </c>
       <c r="R7">
-        <v>286.1474292256827</v>
+        <v>3069.245672772486</v>
       </c>
       <c r="S7">
-        <v>0.1617861260867196</v>
+        <v>0.1079339157812882</v>
       </c>
       <c r="T7">
-        <v>0.1617861260867196</v>
+        <v>0.1079339157812882</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>23.1148849842769</v>
+        <v>23.805466</v>
       </c>
       <c r="H8">
-        <v>23.1148849842769</v>
+        <v>71.416398</v>
       </c>
       <c r="I8">
-        <v>0.5271015980486365</v>
+        <v>0.3326537141924489</v>
       </c>
       <c r="J8">
-        <v>0.5271015980486365</v>
+        <v>0.3326537141924489</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.91545882883449</v>
+        <v>7.023694333333334</v>
       </c>
       <c r="N8">
-        <v>6.91545882883449</v>
+        <v>21.071083</v>
       </c>
       <c r="O8">
-        <v>0.1714627684443001</v>
+        <v>0.1590811435055747</v>
       </c>
       <c r="P8">
-        <v>0.1714627684443001</v>
+        <v>0.1590811435055747</v>
       </c>
       <c r="Q8">
-        <v>159.8500354420115</v>
+        <v>167.2023166465594</v>
       </c>
       <c r="R8">
-        <v>159.8500354420115</v>
+        <v>1504.820849819034</v>
       </c>
       <c r="S8">
-        <v>0.0903782992528339</v>
+        <v>0.0529189332451114</v>
       </c>
       <c r="T8">
-        <v>0.0903782992528339</v>
+        <v>0.05291893324511138</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>23.1148849842769</v>
+        <v>23.805466</v>
       </c>
       <c r="H9">
-        <v>23.1148849842769</v>
+        <v>71.416398</v>
       </c>
       <c r="I9">
-        <v>0.5271015980486365</v>
+        <v>0.3326537141924489</v>
       </c>
       <c r="J9">
-        <v>0.5271015980486365</v>
+        <v>0.3326537141924489</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.911045388253</v>
+        <v>13.91445766666667</v>
       </c>
       <c r="N9">
-        <v>13.911045388253</v>
+        <v>41.74337300000001</v>
       </c>
       <c r="O9">
-        <v>0.3449122340630247</v>
+        <v>0.3151515045818828</v>
       </c>
       <c r="P9">
-        <v>0.3449122340630247</v>
+        <v>0.3151515045818827</v>
       </c>
       <c r="Q9">
-        <v>321.5522141605237</v>
+        <v>331.2401488922727</v>
       </c>
       <c r="R9">
-        <v>321.5522141605237</v>
+        <v>2981.161340030455</v>
       </c>
       <c r="S9">
-        <v>0.1818037897611457</v>
+        <v>0.1048363185325019</v>
       </c>
       <c r="T9">
-        <v>0.1818037897611457</v>
+        <v>0.1048363185325019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.1148849842769</v>
+        <v>23.805466</v>
       </c>
       <c r="H10">
-        <v>23.1148849842769</v>
+        <v>71.416398</v>
       </c>
       <c r="I10">
-        <v>0.5271015980486365</v>
+        <v>0.3326537141924489</v>
       </c>
       <c r="J10">
-        <v>0.5271015980486365</v>
+        <v>0.3326537141924489</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.5056267264356</v>
+        <v>23.213494</v>
       </c>
       <c r="N10">
-        <v>19.5056267264356</v>
+        <v>69.64048200000001</v>
       </c>
       <c r="O10">
-        <v>0.4836249974926752</v>
+        <v>0.5257673519125425</v>
       </c>
       <c r="P10">
-        <v>0.4836249974926752</v>
+        <v>0.5257673519125424</v>
       </c>
       <c r="Q10">
-        <v>450.8703183277965</v>
+        <v>552.6080421582039</v>
       </c>
       <c r="R10">
-        <v>450.8703183277965</v>
+        <v>4973.472379423836</v>
       </c>
       <c r="S10">
-        <v>0.2549195090346569</v>
+        <v>0.1748984624148356</v>
       </c>
       <c r="T10">
-        <v>0.2549195090346569</v>
+        <v>0.1748984624148356</v>
       </c>
     </row>
   </sheetData>
